--- a/sheetjs.xlsx
+++ b/sheetjs.xlsx
@@ -19,300 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <x:si>
+    <x:t>014190</x:t>
+  </x:si>
+  <x:si>
+    <x:t>body</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하ㅠㅠ 언제 복구하나..</x:t>
+  </x:si>
   <x:si>
     <x:t>xorrnr86254150</x:t>
   </x:si>
   <x:si>
-    <x:t>gffer300485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tasks980010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>spain183925</x:t>
-  </x:si>
-  <x:si>
     <x:t>password</x:t>
   </x:si>
   <x:si>
-    <x:t>cmbodi42075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>twins410438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jibber17550</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lsted53368</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">czech96074 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>fewer394843</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mother62490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tour970446</x:t>
+    <x:t>title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>036690</x:t>
+  </x:si>
+  <x:si>
+    <x:t>218410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안녕하세요 종목 정보 좀 얻으려고 왔습니다!</x:t>
   </x:si>
   <x:si>
     <x:t>contributors757379</x:t>
   </x:si>
   <x:si>
+    <x:t>정보 얻고 싶어서 왔습니다 ㅠㅠ 어떤 종목이 좋을까요!?</x:t>
+  </x:si>
+  <x:si>
     <x:t>id</x:t>
   </x:si>
   <x:si>
-    <x:t>compssionte37608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>interposition22381</x:t>
-  </x:si>
-  <x:si>
-    <x:t>impression707786</x:t>
-  </x:si>
-  <x:si>
-    <x:t>audxor10704812</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dventist36706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnswjd1079723</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnaudxor19133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>nonplus90116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rngl54652052</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tjgns82006623</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gkgp14914714</x:t>
-  </x:si>
-  <x:si>
-    <x:t>glgur5117823</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnsgml50041570</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ungulte58351</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnrh27000128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gmlrl24848324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>deflects79868</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dksgldml48346</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnsrp71763510</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">x-rted43250 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>gmlgl28716661</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ghwjd45362382</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">ephrim31017  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>dlgurdml27310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rlawlwns79327</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dnejrtj31681</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rnrdms53571358</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ejrtj35784173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gkgnsgml122126</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">dksghwjd44553  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>gldml6281796</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gkwhd9097615</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">cephlic41166  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>shgmlrl84832</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wnsrn76821139</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">durhm572302  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">dlrldyd29907 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>rldyd39014098</x:t>
-  </x:si>
-  <x:si>
-    <x:t>complint467629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>audtj53970792</x:t>
-  </x:si>
-  <x:si>
-    <x:t>audgh35882241</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gprnr84874523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dhrgmlgl74610</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wnsgh81819654</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wjdgn12346187</x:t>
-  </x:si>
-  <x:si>
-    <x:t>croatia219679</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnwjd6813766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rlaks59847446</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gmlaud92163468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rnwns23535356</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tlsgngns74223</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wjdgn49764982</x:t>
-  </x:si>
-  <x:si>
-    <x:t>aksrp52316557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wlrnr34676605</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gngns23571011</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xortj83485006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>linger316568</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tjfrpaud11869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wkdxorwns35849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rlwjd9314784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xorwns76125972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dhkdrnwns74403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wjdrlwjd876422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rpaud52841062</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wlwns8641598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gurdml42739435</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnejr37869337</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dksaudtj18706</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rkdwjdgn45899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gmlgn65227436</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ghxor55464804</x:t>
-  </x:si>
-  <x:si>
-    <x:t>resistnce502858</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ghrn10519969</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wjdska48303120</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dbswjdgp89088</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnwns88142246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gnwl73152071</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zodicl580642</x:t>
-  </x:si>
-  <x:si>
-    <x:t>audwns14106709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dbwjdska5207</x:t>
-  </x:si>
-  <x:si>
-    <x:t>screcrow64579</x:t>
-  </x:si>
-  <x:si>
-    <x:t>wjdgp50695048</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dkswjd42453704</x:t>
+    <x:t>안녕하세요 주린입니다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지니뮤직 괜찮나요!?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정보좀 줘라~~</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cumen128072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rngl17469006</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -442,8 +202,11 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <x:alignment horizontal="general" vertical="bottom"/>
+    </x:xf>
+    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
   </x:cellXfs>
@@ -1320,409 +1083,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:B49"/>
+  <x:dimension ref="A1:E21"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B3" activeCellId="0" sqref="B3:B3"/>
+      <x:selection activeCell="C6" activeCellId="0" sqref="C6:C6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.800000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="22.77734375" customWidth="1"/>
+    <x:col min="3" max="3" width="44.22265625" customWidth="1"/>
+    <x:col min="4" max="4" width="46.6875" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2">
+    <x:row r="1" spans="1:5">
       <x:c r="A1" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B1" t="s">
         <x:v>4</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
+      <x:c r="C1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
       <x:c r="A2" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:2">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
       <x:c r="A3" t="s">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>33</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:2">
-      <x:c r="A6" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B6" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:2">
-      <x:c r="A8" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="3:5">
+      <x:c r="C4" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B9" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:2">
-      <x:c r="A10" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="B10" t="s">
-        <x:v>79</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:2">
-      <x:c r="A11" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B11" t="s">
-        <x:v>36</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:2">
-      <x:c r="A12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B12" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="A13" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B13" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:2">
-      <x:c r="A14" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:2">
-      <x:c r="A16" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B16" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:2">
-      <x:c r="A17" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B17" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:2">
-      <x:c r="A18" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B18" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:2">
-      <x:c r="A19" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B19" t="s">
-        <x:v>41</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="A20" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B20" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:2">
-      <x:c r="A21" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="B21" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B22" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:2">
-      <x:c r="A23" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="B23" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B24" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:2">
-      <x:c r="A25" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B25" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:2">
-      <x:c r="A26" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B26" t="s">
-        <x:v>68</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:2">
-      <x:c r="A27" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B27" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B28" t="s">
-        <x:v>78</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:2">
-      <x:c r="A29" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B29" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2">
-      <x:c r="A30" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B30" t="s">
-        <x:v>62</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:2">
-      <x:c r="A31" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="B31" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:2">
-      <x:c r="A32" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="B32" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:2">
-      <x:c r="A33" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B33" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:2">
-      <x:c r="A34" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="B34" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
-      <x:c r="A35" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B35" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:2">
-      <x:c r="A36" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B36" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
-      <x:c r="A37" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B37" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:2">
-      <x:c r="A38" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B38" t="s">
-        <x:v>84</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
-      <x:c r="A39" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B39" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:2">
-      <x:c r="A40" t="s">
+      <x:c r="D4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B40" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
-      <x:c r="A41" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B41" t="s">
-        <x:v>87</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:2">
-      <x:c r="A42" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B42" t="s">
-        <x:v>96</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2">
-      <x:c r="A43" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="B43" t="s">
-        <x:v>85</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
-      <x:c r="A44" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="B44" t="s">
-        <x:v>90</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:2">
-      <x:c r="A45" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="B45" t="s">
-        <x:v>88</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="1:2">
-      <x:c r="A46" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B46" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:2">
-      <x:c r="A47" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B47" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:2">
-      <x:c r="A48" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B48" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
-      <x:c r="A49" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B49" t="s">
-        <x:v>23</x:v>
-      </x:c>
+    </x:row>
+    <x:row r="5" spans="5:5">
+      <x:c r="E5" s="1"/>
+    </x:row>
+    <x:row r="6" spans="5:5">
+      <x:c r="E6" s="1"/>
+    </x:row>
+    <x:row r="7" spans="5:5">
+      <x:c r="E7" s="1"/>
+    </x:row>
+    <x:row r="8" spans="5:5">
+      <x:c r="E8" s="1"/>
+    </x:row>
+    <x:row r="9" spans="5:5">
+      <x:c r="E9" s="1"/>
+    </x:row>
+    <x:row r="10" spans="5:5">
+      <x:c r="E10" s="1"/>
+    </x:row>
+    <x:row r="11" spans="5:5">
+      <x:c r="E11" s="1"/>
+    </x:row>
+    <x:row r="12" spans="5:5">
+      <x:c r="E12" s="1"/>
+    </x:row>
+    <x:row r="13" spans="5:5">
+      <x:c r="E13" s="1"/>
+    </x:row>
+    <x:row r="14" spans="5:5">
+      <x:c r="E14" s="1"/>
+    </x:row>
+    <x:row r="15" spans="5:5">
+      <x:c r="E15" s="1"/>
+    </x:row>
+    <x:row r="16" spans="5:5">
+      <x:c r="E16" s="1"/>
+    </x:row>
+    <x:row r="17" spans="5:5">
+      <x:c r="E17" s="1"/>
+    </x:row>
+    <x:row r="18" spans="5:5">
+      <x:c r="E18" s="1"/>
+    </x:row>
+    <x:row r="19" spans="5:5">
+      <x:c r="E19" s="1"/>
+    </x:row>
+    <x:row r="20" spans="5:5">
+      <x:c r="E20" s="1"/>
+    </x:row>
+    <x:row r="21" spans="5:5">
+      <x:c r="E21" s="1"/>
     </x:row>
   </x:sheetData>
   <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
